--- a/assessments/BCB744_Task_B_Name_Surname.xlsx
+++ b/assessments/BCB744_Task_B_Name_Surname.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajsmit/Documents/R_local/tangled_bank/assessments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{973AE883-7360-024F-AF8C-D0FC1031251A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1044F479-C866-BD42-BE19-83A9A32F111A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30920" yWindow="8840" windowWidth="28040" windowHeight="17440" xr2:uid="{A6DFEAAA-4AB5-6E4A-B924-4A358123E90B}"/>
   </bookViews>
